--- a/worksheet/test.xlsx
+++ b/worksheet/test.xlsx
@@ -9,18 +9,31 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="맑은 고딕"/>
-      <color rgb="ff000000"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="8"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,16 +50,18 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -121,41 +136,41 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:themeElements>
     <a:clrScheme name="">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="ffffff"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="3a3c84"/>
+        <a:srgbClr val="3A3C84"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="faf3db"/>
+        <a:srgbClr val="FAF3DB"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="6182d6"/>
+        <a:srgbClr val="6182D6"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ff843a"/>
+        <a:srgbClr val="FF843A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="b2b2b2"/>
+        <a:srgbClr val="B2B2B2"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffd700"/>
+        <a:srgbClr val="FFD700"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="289b6e"/>
+        <a:srgbClr val="289B6E"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="9d5cbb"/>
+        <a:srgbClr val="9D5CBB"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -173,7 +188,7 @@
         <a:cs typeface="HNC_GO_B_HINT_GS"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -369,6 +384,7 @@
       <a:lstStyle/>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -378,13 +394,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
       <c r="C1" t="inlineStr">
@@ -404,13 +420,210 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>gad</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>gfad</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>agd</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>cv</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>xzb</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>baf</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>row</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>asdfsfda</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>safdsfadsfadfsad</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>asdfsfda</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>sfdafsadsfaddsaf</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>safdsfadsfadfsad</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>asdfsfda</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>sfdafsadsfaddsaf</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>safdsfadsfadfsad</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>asdfsfda</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>sfdafsadsfaddsaf</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>safdsfadsfadfsad</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>asdfsfda</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>sfdafsadsfaddsaf</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>safdsfadsfadfsad</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>asdfsfda</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>sfdafsadsfaddsaf</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>safdsfadsfadfsad</t>
+        </is>
+      </c>
+    </row>
+    <row r="14"/>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
